--- a/data/Dataset propio/test_data.xlsx
+++ b/data/Dataset propio/test_data.xlsx
@@ -1,19 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Question Text</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>¿Quines pueden solicitar las protecciónes?</t>
+  </si>
+  <si>
+    <t>Las personas nacionales no comunitarias y las apátridas presentes en territorio español</t>
+  </si>
+  <si>
+    <t>¿Donde puede solicitar protección?</t>
+  </si>
+  <si>
+    <t>España.</t>
+  </si>
+  <si>
+    <t>¿Que puedo solicitar en España?</t>
+  </si>
+  <si>
+    <t>protección internacional en España</t>
+  </si>
+  <si>
+    <t>¿Que derecho tengo como refugiado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solicitar protección internacional</t>
+  </si>
+  <si>
+    <t>¿Que derechos tienen los solicitante de protección?</t>
+  </si>
+  <si>
+    <t>derecho a asistencia sanitaria y a asistencia jurídica gratuita</t>
+  </si>
+  <si>
+    <t>¿Que derechos tienen los solicitante de asilo?</t>
+  </si>
+  <si>
+    <t>sanitaria y a asistencia jurídica gratuita,</t>
+  </si>
+  <si>
+    <t>¿Que derechos tendra los refugiados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asistencia sanitaria y a asistencia jurídica gratuita</t>
+  </si>
+  <si>
+    <t>¿Que conllevará la solicitud?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la condición de refugiado, así como de la concesión de la protección subsidiaria</t>
+  </si>
+  <si>
+    <t>¿Que caracter dentra la información?</t>
+  </si>
+  <si>
+    <t>tendrá carácter confidencial</t>
+  </si>
+  <si>
+    <t>¿No hablo español?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho a intérprete </t>
+  </si>
+  <si>
+    <t>¿Puedo solicitar traductor?</t>
+  </si>
+  <si>
+    <t>derecho a intérprete</t>
+  </si>
+  <si>
+    <t>¿Tiene coste la solicitud de asistencia sanitara, asistencia juridica, interprete, formalización de la solicitu y la tramitación?</t>
+  </si>
+  <si>
+    <t>gratuita</t>
+  </si>
+  <si>
+    <t>La intervención a las personas destinatarias se lleva a cabo a través de un itinerario de acogida que se desarrolla en tres fases: valoración inicial y derivación, acogida y autonomía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo puedo ser reconocido como refugiado? </t>
+  </si>
+  <si>
+    <t>¿Qué trámites debo realizar para ser reconocido como refugiado?</t>
+  </si>
+  <si>
+    <t>¿Qué trámites debo realizar para tener derechos como refugiado?</t>
+  </si>
+  <si>
+    <t>¿Cómo puedo conseguir Asesoramiento legal?</t>
+  </si>
+  <si>
+    <t>¿Tendré problema en la acogida por el idioma?</t>
+  </si>
+  <si>
+    <t>¿Cuánto dura la protección?</t>
+  </si>
+  <si>
+    <t>Durante el tiempo de permanencia en el sistema de acogida de protección internacional, se realizará un seguimiento regular de las necesidades particulares de la persona destinataria, para garantizar el abordaje de cualquier cambio que se pueda producir.</t>
+  </si>
+  <si>
+    <t>La propuesta de derivación a plazas para personas en situación de vulnerabilidad podrá señalar la conveniencia de derivar a la persona destinataria a otros recursos o centros no incluidos en el sistema de acogida.</t>
+  </si>
+  <si>
+    <t>¿Puede ampliarse la ayuda que reciba por ser reconocido como refugiado?</t>
+  </si>
+  <si>
+    <t>Podrán acceder al sistema de acogida de protección internacional las personas que presenten una solicitud de protección internacional en los términos descritos en el artículo 17. 1 de la Ley 12/2009, de 30 de octubre,</t>
+  </si>
+  <si>
+    <t>El derecho de asilo es la protección dispensada a los nacionales no comunitarios o a los apátridas a quienes se reconozca la condición de refugiado en los términos definidos en el artículo 3 de esta Ley y en la Convención sobre el Estatuto de los Refugiados</t>
+  </si>
+  <si>
+    <t>¿En qué consiste el derecho de asilo?</t>
+  </si>
+  <si>
+    <t>¿Qué derechos tendré como refugiado?</t>
+  </si>
+  <si>
+    <t>La protección concedida con el derecho de asilo y la protección subsidiaria consiste en la no devolución ni expulsión de las personas a quienes se les haya reconocido, así como en la adopción de las medidas contempladas en el artículo 36 de esta Ley y en las normas que lo desarrollen,</t>
+  </si>
+  <si>
+    <t>¿Qué es la protección subsidiaria?</t>
+  </si>
+  <si>
+    <t>El derecho a la protección subsidiaria es el dispensado a las personas de otros países y a los apátridas que, sin reunir los requisitos para obtener el asilo o ser reconocidas como refugiadas, pero respecto de las cuales se den motivos fundados para creer que si regresasen a su país de origen en el caso de los nacionales o, al de su anterior residencia habitual en el caso de los apátridas, se enfrentarían a un riesgo real de sufrir alguno de los daños graves previstos en el artículo 10 de esta Ley, y que no pueden o, a causa de dicho riesgo, no quieren, acogerse a la protección del país de que se trate</t>
+  </si>
+  <si>
+    <t>¿Qué documentación debo aportar?</t>
+  </si>
+  <si>
+    <t>Serán obligaciones de los solicitantes de protección internacional las siguientes:
+a) cooperar con las autoridades españolas en el procedimiento para la concesión de protección internacional;
+b) presentar, lo antes posible, todos aquellos elementos que, junto a su propia declaración, contribuyan a fundamentar su solicitud. Entre otros, podrán presentar la documentación de que dispongan sobre su edad, pasado –incluido el de parientes relacionados–, identidad, nacionalidad o nacionalidades, lugares de anterior residencia, solicitudes de protección internacional previas, itinerarios de viaje, documentos de viaje y motivos por los que solicita la protección;
+c) proporcionar sus impresiones dactilares, permitir ser fotografiados y, en su caso, consentir que sean grabadas sus declaraciones, siempre que hayan sido previamente informados sobre este último extremo;
+d) informar sobre su domicilio en España y cualquier cambio que se produzca en él;
+e) informar, asimismo, a la autoridad competente o comparecer ante ella, cuando así se les requiera con relación a cualquier circunstancia de su solicitud.</t>
+  </si>
+  <si>
+    <t>El procedimiento se inicia con la presentación de la solicitud, que deberá efectuarse mediante comparecencia personal de los interesados que soliciten protección en los lugares que reglamentariamente se establezcan</t>
+  </si>
+  <si>
+    <t>¿En qué consiste el itinerario de acogida?</t>
+  </si>
+  <si>
+    <t>los solicitantes de protección internacional tendrán derecho a asistencia sanitaria y a asistencia jurídica gratuita, que se extenderá a la formalización de la solicitud y a toda la tramitación del procedimiento, y que se prestará en los términos previstos en la legislación española en esta materia, así como derecho a intérprete</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -22,12 +184,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,14 +210,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,166 +549,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="83.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Question Text</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Category</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Answer</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>642434</v>
       </c>
-      <c r="B2" t="str">
-        <v>¿Quines pueden solicitar las protecciónes?</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Las personas nacionales no comunitarias y las apátridas presentes en territorio español</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>642436</v>
       </c>
-      <c r="B3" t="str">
-        <v>¿Donde puede solicitar protección?</v>
-      </c>
-      <c r="D3" t="str">
-        <v>España.</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>642437</v>
       </c>
-      <c r="B4" t="str">
-        <v>¿Que puedo solicitar en España?</v>
-      </c>
-      <c r="D4" t="str">
-        <v>protección internacional en España</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>642438</v>
       </c>
-      <c r="B5" t="str">
-        <v>¿Que derecho tengo como refugiado?</v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> solicitar protección internacional</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>642439</v>
       </c>
-      <c r="B6" t="str">
-        <v>¿Que derechos tienen los solicitante de protección?</v>
-      </c>
-      <c r="D6" t="str">
-        <v>derecho a asistencia sanitaria y a asistencia jurídica gratuita</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>642440</v>
       </c>
-      <c r="B7" t="str">
-        <v>¿Que derechos tienen los solicitante de asilo?</v>
-      </c>
-      <c r="D7" t="str">
-        <v>sanitaria y a asistencia jurídica gratuita,</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>642441</v>
       </c>
-      <c r="B8" t="str">
-        <v>¿Que derechos tendra los refugiados?</v>
-      </c>
-      <c r="D8" t="str">
-        <v xml:space="preserve"> asistencia sanitaria y a asistencia jurídica gratuita</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>642442</v>
       </c>
-      <c r="B9" t="str">
-        <v>¿Que conllevará la solicitud?</v>
-      </c>
-      <c r="D9" t="str">
-        <v xml:space="preserve"> la condición de refugiado, así como de la concesión de la protección subsidiaria</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>642443</v>
       </c>
-      <c r="B10" t="str">
-        <v>¿Que caracter dentra la información?</v>
-      </c>
-      <c r="D10" t="str">
-        <v>tendrá carácter confidencial</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>642444</v>
       </c>
-      <c r="B11" t="str">
-        <v>¿No hablo español?</v>
-      </c>
-      <c r="D11" t="str">
-        <v xml:space="preserve">derecho a intérprete </v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>642445</v>
       </c>
-      <c r="B12" t="str">
-        <v>¿Puedo solicitar traductor?</v>
-      </c>
-      <c r="D12" t="str">
-        <v>derecho a intérprete</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>642446</v>
       </c>
-      <c r="B13" t="str">
-        <v>¿Tiene coste la solicitud de asistencia sanitara, asistencia juridica, interprete, formalización de la solicitu y la tramitación?</v>
-      </c>
-      <c r="D13" t="str">
-        <v>gratuita</v>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>642447</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>642448</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>642449</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>642450</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>642451</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>642452</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>642453</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>642454</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>642455</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>642456</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>642457</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>642458</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
+    <ignoredError sqref="A1:D13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>